--- a/dist/test.xlsx
+++ b/dist/test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="2">
   <si>
     <t>测试123</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,9 +72,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -141,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,41 +351,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -403,10 +393,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -420,10 +408,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -437,10 +423,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -454,10 +438,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -471,10 +453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -488,10 +468,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -505,10 +483,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -522,10 +498,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -539,10 +513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -556,10 +528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -573,10 +543,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -590,10 +558,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -607,10 +573,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -624,10 +588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -641,10 +603,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -658,10 +618,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -675,10 +633,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -692,10 +648,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -709,10 +663,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -726,10 +678,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -743,10 +693,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -761,6 +709,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
